--- a/jadwal 2021.xlsx
+++ b/jadwal 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>Waktu</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Kegiatan</t>
   </si>
   <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>PJ</t>
   </si>
   <si>
@@ -34,10 +37,14 @@
     <t>Ziyadah Hafalan Baru</t>
   </si>
   <si>
+    <t>1 halaman</t>
+  </si>
+  <si>
     <t>Ustadz Iman + Ustadz Zen</t>
   </si>
   <si>
-    <t>Ustadz Iman pentashih, Ustadz Zen nerima setoran</t>
+    <t>Ustadz Iman pentashih, Ustadz Zen
+ nerima setoran</t>
   </si>
   <si>
     <t>07.00 - 08.00</t>
@@ -52,10 +59,33 @@
     <t>08.00 - 09.30</t>
   </si>
   <si>
-    <t>Murajaah Hafalan Kemarin</t>
+    <t>Murajaah Hafalan Kemarin
+(1 halaman)</t>
   </si>
   <si>
     <t>Ustadz Miftah</t>
+  </si>
+  <si>
+    <t>Jika 1 halaman sempurna, 
+murajaah 4 halaman sebelumnya (fase 1)</t>
+  </si>
+  <si>
+    <t>09.30 - 10.00</t>
+  </si>
+  <si>
+    <t>Istirahat</t>
+  </si>
+  <si>
+    <t>10.00 - 12.30</t>
+  </si>
+  <si>
+    <t>Murajaah Hafalan Lama</t>
+  </si>
+  <si>
+    <t>4 halaman</t>
+  </si>
+  <si>
+    <t>Berurutan</t>
   </si>
 </sst>
 </file>
@@ -1004,21 +1034,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="50.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="26.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="10.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="36.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,41 +1062,73 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="25.5" spans="1:4">
+    <row r="2" ht="25.5" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="25.5" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/jadwal 2021.xlsx
+++ b/jadwal 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>Waktu</t>
   </si>
@@ -66,26 +66,56 @@
     <t>Ustadz Miftah</t>
   </si>
   <si>
-    <t>Jika 1 halaman sempurna, 
-murajaah 4 halaman sebelumnya (fase 1)</t>
-  </si>
-  <si>
     <t>09.30 - 10.00</t>
   </si>
   <si>
     <t>Istirahat</t>
   </si>
   <si>
-    <t>10.00 - 12.30</t>
+    <t>10.00 - 11.30</t>
+  </si>
+  <si>
+    <t>Murajaah Hafalan Baru</t>
+  </si>
+  <si>
+    <t>11.30 - 13.00</t>
+  </si>
+  <si>
+    <t>ISHOMA</t>
+  </si>
+  <si>
+    <t>13.00 - 13.30</t>
+  </si>
+  <si>
+    <t>Qailulah</t>
+  </si>
+  <si>
+    <t>13.30 - 15.00</t>
+  </si>
+  <si>
+    <t>Murajaah Hari Ini + 4 halaman
+sebelumnya</t>
+  </si>
+  <si>
+    <t>15.00 - 16.00</t>
+  </si>
+  <si>
+    <t>Istirahat + Shalat</t>
+  </si>
+  <si>
+    <t>16.00 - 17.00</t>
+  </si>
+  <si>
+    <t>Putri: Setoran sama Ustadzah Yani</t>
   </si>
   <si>
     <t>Murajaah Hafalan Lama</t>
   </si>
   <si>
-    <t>4 halaman</t>
-  </si>
-  <si>
-    <t>Berurutan</t>
+    <t>5 halaman</t>
+  </si>
+  <si>
+    <t>Berurutan. Berpasangan</t>
   </si>
 </sst>
 </file>
@@ -1034,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="26.7142857142857" customWidth="1"/>
@@ -1105,30 +1135,76 @@
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" spans="1:2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" spans="1:5">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/jadwal 2021.xlsx
+++ b/jadwal 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>Waktu</t>
   </si>
@@ -29,6 +29,22 @@
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>03.30 - 05.00</t>
+  </si>
+  <si>
+    <t>Qiyamul Lail</t>
+  </si>
+  <si>
+    <t>Baca 5 halaman kemarin
+Jumat: Murajaah hafalan lama</t>
+  </si>
+  <si>
+    <t>05.00 - 05.30</t>
+  </si>
+  <si>
+    <t>Shalat Subuh</t>
   </si>
   <si>
     <t>05.30 - 07.00</t>
@@ -66,6 +82,9 @@
     <t>Ustadz Miftah</t>
   </si>
   <si>
+    <t>Sabtu: Fiqh</t>
+  </si>
+  <si>
     <t>09.30 - 10.00</t>
   </si>
   <si>
@@ -106,16 +125,57 @@
     <t>16.00 - 17.00</t>
   </si>
   <si>
-    <t>Putri: Setoran sama Ustadzah Yani</t>
+    <t>Putri: Setoran sama Ustadzah Yani
+Kamis: Adab</t>
+  </si>
+  <si>
+    <t>17.00 - 17.30</t>
+  </si>
+  <si>
+    <t>Olahraga</t>
+  </si>
+  <si>
+    <t>17.30 - 18.00</t>
+  </si>
+  <si>
+    <t>Bersih Diri + Persiapan Shalat
+Maghrib</t>
+  </si>
+  <si>
+    <t>Ustadz Iman</t>
+  </si>
+  <si>
+    <t>18.00 - 19.30</t>
+  </si>
+  <si>
+    <t>Setoran Hafalan Final</t>
+  </si>
+  <si>
+    <t>Untuk menentukan lanjut/tidak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.00 - </t>
+  </si>
+  <si>
+    <t>Makan malam + Tidur</t>
+  </si>
+  <si>
+    <t>JUMAT</t>
   </si>
   <si>
     <t>Murajaah Hafalan Lama</t>
   </si>
   <si>
-    <t>5 halaman</t>
-  </si>
-  <si>
-    <t>Berurutan. Berpasangan</t>
+    <t>1 juz</t>
+  </si>
+  <si>
+    <t>Berurutan. Dilihat dari kartu kontrol</t>
+  </si>
+  <si>
+    <t>AHAD</t>
+  </si>
+  <si>
+    <t>Setengah Juz</t>
   </si>
 </sst>
 </file>
@@ -1064,17 +1124,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="26.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="10.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="13.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="14.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="36.7142857142857" customWidth="1"/>
   </cols>
@@ -1103,108 +1163,184 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:5">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="25.5" spans="1:5">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" spans="1:2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" spans="1:5">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" spans="1:4">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/jadwal 2021.xlsx
+++ b/jadwal 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>Waktu</t>
   </si>
@@ -116,6 +116,12 @@
 sebelumnya</t>
   </si>
   <si>
+    <t>Ustadz Iman</t>
+  </si>
+  <si>
+    <t>Berpasangan</t>
+  </si>
+  <si>
     <t>15.00 - 16.00</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
   </si>
   <si>
     <t>16.00 - 17.00</t>
+  </si>
+  <si>
+    <t>Ustadz Zen</t>
   </si>
   <si>
     <t>Putri: Setoran sama Ustadzah Yani
@@ -140,9 +149,6 @@
   <si>
     <t>Bersih Diri + Persiapan Shalat
 Maghrib</t>
-  </si>
-  <si>
-    <t>Ustadz Iman</t>
   </si>
   <si>
     <t>18.00 - 19.30</t>
@@ -1127,7 +1133,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1226,12 +1232,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1250,97 +1259,106 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="25.5" spans="1:2">
+    <row r="11" ht="25.5" spans="1:5">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="25.5" spans="1:5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:4">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
         <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/jadwal 2021.xlsx
+++ b/jadwal 2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>Waktu</t>
   </si>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>Qiyamul Lail</t>
+  </si>
+  <si>
+    <t>Ustadz yang 
+jaga malam</t>
   </si>
   <si>
     <t>Baca 5 halaman kemarin
@@ -1133,7 +1137,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1169,196 +1173,199 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="25.5" spans="1:5">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
